--- a/data/pca/factorExposure/factorExposure_2017-04-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02429029838074791</v>
+        <v>0.01049368676560266</v>
       </c>
       <c r="C2">
-        <v>-0.004245216374896339</v>
+        <v>-0.04190627508129434</v>
       </c>
       <c r="D2">
-        <v>0.03435042817918027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02924594391879781</v>
+      </c>
+      <c r="E2">
+        <v>-0.03440459837424486</v>
+      </c>
+      <c r="F2">
+        <v>0.009055632857883113</v>
+      </c>
+      <c r="G2">
+        <v>0.09423249944950902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01813964465508028</v>
+        <v>0.04190557469956062</v>
       </c>
       <c r="C3">
-        <v>0.01228216592220174</v>
+        <v>-0.1014210253043596</v>
       </c>
       <c r="D3">
-        <v>0.1080545429418763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01781363133501495</v>
+      </c>
+      <c r="E3">
+        <v>-0.09886801049850773</v>
+      </c>
+      <c r="F3">
+        <v>0.003890347752265014</v>
+      </c>
+      <c r="G3">
+        <v>0.177583424214474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02445867243739972</v>
+        <v>0.05547564084532473</v>
       </c>
       <c r="C4">
-        <v>-0.002526493509425953</v>
+        <v>-0.06849888383872688</v>
       </c>
       <c r="D4">
-        <v>0.08587395377739711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02434006788838856</v>
+      </c>
+      <c r="E4">
+        <v>-0.02980358377596301</v>
+      </c>
+      <c r="F4">
+        <v>0.009917540887997015</v>
+      </c>
+      <c r="G4">
+        <v>0.1003335952651429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01180837054952325</v>
+        <v>0.03644793454534367</v>
       </c>
       <c r="C6">
-        <v>-0.01228813473426827</v>
+        <v>-0.05269176967863841</v>
       </c>
       <c r="D6">
-        <v>0.08179807205814367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01686191005618858</v>
+      </c>
+      <c r="E6">
+        <v>-0.03550905127651151</v>
+      </c>
+      <c r="F6">
+        <v>0.006741458120907811</v>
+      </c>
+      <c r="G6">
+        <v>0.08318817919821314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008372653775397134</v>
+        <v>0.02064488601184118</v>
       </c>
       <c r="C7">
-        <v>-0.009325191636036453</v>
+        <v>-0.03966675370588294</v>
       </c>
       <c r="D7">
-        <v>0.0355956154437558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01393896881339213</v>
+      </c>
+      <c r="E7">
+        <v>-0.005119803376802071</v>
+      </c>
+      <c r="F7">
+        <v>-0.003624578267926369</v>
+      </c>
+      <c r="G7">
+        <v>0.1202345449901482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001603339811809375</v>
+        <v>0.00312204357994354</v>
       </c>
       <c r="C8">
-        <v>-0.00154900489656973</v>
+        <v>-0.02466928130682966</v>
       </c>
       <c r="D8">
-        <v>0.001699104719298546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003957645769542074</v>
+      </c>
+      <c r="E8">
+        <v>-0.02767629505856796</v>
+      </c>
+      <c r="F8">
+        <v>0.006028718230915651</v>
+      </c>
+      <c r="G8">
+        <v>0.06961433799601988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01816736838145219</v>
+        <v>0.03362575933493695</v>
       </c>
       <c r="C9">
-        <v>0.003507857804836573</v>
+        <v>-0.04938682951958179</v>
       </c>
       <c r="D9">
-        <v>0.06232165100978756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01636584972286201</v>
+      </c>
+      <c r="E9">
+        <v>-0.01922650750296833</v>
+      </c>
+      <c r="F9">
+        <v>0.007040288245241453</v>
+      </c>
+      <c r="G9">
+        <v>0.1003550075867856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07740295703058074</v>
+        <v>0.09849780286102179</v>
       </c>
       <c r="C10">
-        <v>0.175587110369662</v>
+        <v>0.1817883235004616</v>
       </c>
       <c r="D10">
-        <v>-0.08920206515610513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01514120414707806</v>
+      </c>
+      <c r="E10">
+        <v>-0.02108436149425787</v>
+      </c>
+      <c r="F10">
+        <v>-0.0226167890856666</v>
+      </c>
+      <c r="G10">
+        <v>0.05872409284906135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007767213952766196</v>
+        <v>0.03438073484413161</v>
       </c>
       <c r="C11">
-        <v>-0.004678951270510451</v>
+        <v>-0.05446399311748407</v>
       </c>
       <c r="D11">
-        <v>0.05602764700739044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002444242869799131</v>
+      </c>
+      <c r="E11">
+        <v>-0.01708998971988823</v>
+      </c>
+      <c r="F11">
+        <v>0.02158842636498503</v>
+      </c>
+      <c r="G11">
+        <v>0.09192988730696802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.003806467667560769</v>
+        <v>0.03588879203240751</v>
       </c>
       <c r="C12">
-        <v>-0.005902367145961793</v>
+        <v>-0.04910503111502939</v>
       </c>
       <c r="D12">
-        <v>0.04778461627178231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006513737141554376</v>
+      </c>
+      <c r="E12">
+        <v>-0.008184796983905158</v>
+      </c>
+      <c r="F12">
+        <v>0.002298440826445922</v>
+      </c>
+      <c r="G12">
+        <v>0.08357663811934246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0253545030319933</v>
+        <v>0.01556651479662305</v>
       </c>
       <c r="C13">
-        <v>0.002684952127506971</v>
+        <v>-0.04165575454314704</v>
       </c>
       <c r="D13">
-        <v>0.03968755375709904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02640969529667117</v>
+      </c>
+      <c r="E13">
+        <v>-0.03604600666865899</v>
+      </c>
+      <c r="F13">
+        <v>0.005449571989582331</v>
+      </c>
+      <c r="G13">
+        <v>0.1362964414717097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008931273324032108</v>
+        <v>0.008533302089714621</v>
       </c>
       <c r="C14">
-        <v>0.002312640090662907</v>
+        <v>-0.02875865722709898</v>
       </c>
       <c r="D14">
-        <v>0.01713121696945057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01006412582930282</v>
+      </c>
+      <c r="E14">
+        <v>-0.006666678085104643</v>
+      </c>
+      <c r="F14">
+        <v>-0.007584997390338087</v>
+      </c>
+      <c r="G14">
+        <v>0.1032744855297642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00228651637738795</v>
+        <v>0.0330758190876102</v>
       </c>
       <c r="C16">
-        <v>0.002606063183057494</v>
+        <v>-0.04733838794887714</v>
       </c>
       <c r="D16">
-        <v>0.04514582297823019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001913754025366673</v>
+      </c>
+      <c r="E16">
+        <v>-0.0145850613365994</v>
+      </c>
+      <c r="F16">
+        <v>0.003007812730677219</v>
+      </c>
+      <c r="G16">
+        <v>0.09219183881298866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01174979897788508</v>
+        <v>0.02160478327006969</v>
       </c>
       <c r="C19">
-        <v>-0.005675480693587538</v>
+        <v>-0.05416068981657969</v>
       </c>
       <c r="D19">
-        <v>0.04861350321991051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01878525748931842</v>
+      </c>
+      <c r="E19">
+        <v>-0.07446892382016584</v>
+      </c>
+      <c r="F19">
+        <v>0.02081750443699428</v>
+      </c>
+      <c r="G19">
+        <v>0.1332584246233415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009311400170178554</v>
+        <v>0.01471757599889972</v>
       </c>
       <c r="C20">
-        <v>-0.006069501585484242</v>
+        <v>-0.0410076259530086</v>
       </c>
       <c r="D20">
-        <v>0.0354690671481747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0144027977773883</v>
+      </c>
+      <c r="E20">
+        <v>-0.03639812223064948</v>
+      </c>
+      <c r="F20">
+        <v>-0.01249953082531695</v>
+      </c>
+      <c r="G20">
+        <v>0.1110380239518334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01460281454827995</v>
+        <v>0.01216769809693573</v>
       </c>
       <c r="C21">
-        <v>-0.000229117178485726</v>
+        <v>-0.03989964762236111</v>
       </c>
       <c r="D21">
-        <v>0.03288845701759668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01891490155216973</v>
+      </c>
+      <c r="E21">
+        <v>-0.04949750182910887</v>
+      </c>
+      <c r="F21">
+        <v>0.001911580127068963</v>
+      </c>
+      <c r="G21">
+        <v>0.1293542634397579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001450916830854402</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0004685801803165472</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0005733317405244334</v>
+      </c>
+      <c r="E22">
+        <v>-0.003055934007883588</v>
+      </c>
+      <c r="F22">
+        <v>0.001448597098183867</v>
+      </c>
+      <c r="G22">
+        <v>0.005112052097719439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001457412344501965</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0004764781131439766</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0005727988831873544</v>
+      </c>
+      <c r="E23">
+        <v>-0.003048588092480678</v>
+      </c>
+      <c r="F23">
+        <v>0.001452361934321659</v>
+      </c>
+      <c r="G23">
+        <v>0.005010441201329595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001417430793770438</v>
+        <v>0.02844004691591212</v>
       </c>
       <c r="C24">
-        <v>-0.009954352010675809</v>
+        <v>-0.05164888373275702</v>
       </c>
       <c r="D24">
-        <v>0.04940320827502779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007197768600923063</v>
+      </c>
+      <c r="E24">
+        <v>-0.01132695151078318</v>
+      </c>
+      <c r="F24">
+        <v>0.01314725111774086</v>
+      </c>
+      <c r="G24">
+        <v>0.09217129587736476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01281880685022259</v>
+        <v>0.04271971198260564</v>
       </c>
       <c r="C25">
-        <v>0.001393685439689666</v>
+        <v>-0.05885751807621797</v>
       </c>
       <c r="D25">
-        <v>0.05943465796700292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01119629084784792</v>
+      </c>
+      <c r="E25">
+        <v>-0.003322019419067138</v>
+      </c>
+      <c r="F25">
+        <v>0.007116876956713653</v>
+      </c>
+      <c r="G25">
+        <v>0.1017013702808129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02217725016182565</v>
+        <v>0.01426892950123535</v>
       </c>
       <c r="C26">
-        <v>-0.004916001776994938</v>
+        <v>-0.01151645080305403</v>
       </c>
       <c r="D26">
-        <v>0.001122574418137998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02403285816342901</v>
+      </c>
+      <c r="E26">
+        <v>-0.009447088828305234</v>
+      </c>
+      <c r="F26">
+        <v>-0.009548622968802054</v>
+      </c>
+      <c r="G26">
+        <v>0.08224710300289106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1140473762656426</v>
+        <v>0.1255639724702232</v>
       </c>
       <c r="C28">
-        <v>0.2238160295727532</v>
+        <v>0.238846360564847</v>
       </c>
       <c r="D28">
-        <v>-0.1106709042777221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006142521398733806</v>
+      </c>
+      <c r="E28">
+        <v>-0.008112150430441892</v>
+      </c>
+      <c r="F28">
+        <v>-0.01762061611514089</v>
+      </c>
+      <c r="G28">
+        <v>0.04481132578758378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01129420187027425</v>
+        <v>0.009515263538914468</v>
       </c>
       <c r="C29">
-        <v>0.007940595921650646</v>
+        <v>-0.02290958008371827</v>
       </c>
       <c r="D29">
-        <v>0.02007843159666806</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009044424353372549</v>
+      </c>
+      <c r="E29">
+        <v>-0.003789779778085278</v>
+      </c>
+      <c r="F29">
+        <v>-0.01585711645776287</v>
+      </c>
+      <c r="G29">
+        <v>0.09619515405669891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01897781722718358</v>
+        <v>0.04135982235920151</v>
       </c>
       <c r="C30">
-        <v>-0.0188270059566257</v>
+        <v>-0.07140662463269735</v>
       </c>
       <c r="D30">
-        <v>0.1033681828417926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02864443339347844</v>
+      </c>
+      <c r="E30">
+        <v>-0.05662328695459522</v>
+      </c>
+      <c r="F30">
+        <v>0.04327614403346424</v>
+      </c>
+      <c r="G30">
+        <v>0.1274077728712469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0160279622381725</v>
+        <v>0.05279511034748145</v>
       </c>
       <c r="C31">
-        <v>0.02171072903455809</v>
+        <v>-0.03792001046263653</v>
       </c>
       <c r="D31">
-        <v>0.03610293071178587</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003856293232339835</v>
+      </c>
+      <c r="E31">
+        <v>-0.0003139440845410084</v>
+      </c>
+      <c r="F31">
+        <v>-0.0405519663789911</v>
+      </c>
+      <c r="G31">
+        <v>0.1000048485358467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0006105948092191842</v>
+        <v>0.001969512192018486</v>
       </c>
       <c r="C32">
-        <v>0.01802681708646756</v>
+        <v>-0.02481714975561085</v>
       </c>
       <c r="D32">
-        <v>0.007629700692250125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.003397403796080125</v>
+      </c>
+      <c r="E32">
+        <v>-0.02934349350623488</v>
+      </c>
+      <c r="F32">
+        <v>0.03803762714171773</v>
+      </c>
+      <c r="G32">
+        <v>0.07659397642494338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01311989327762868</v>
+        <v>0.02754996541599482</v>
       </c>
       <c r="C33">
-        <v>0.0007537201578376959</v>
+        <v>-0.05133114491493152</v>
       </c>
       <c r="D33">
-        <v>0.04620166471657371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01564774386152141</v>
+      </c>
+      <c r="E33">
+        <v>-0.04180339923136339</v>
+      </c>
+      <c r="F33">
+        <v>0.01564664365627394</v>
+      </c>
+      <c r="G33">
+        <v>0.1605249165441841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001398988741471565</v>
+        <v>0.03998659885936574</v>
       </c>
       <c r="C34">
-        <v>0.009021820248009913</v>
+        <v>-0.06063391625990204</v>
       </c>
       <c r="D34">
-        <v>0.05756613352093933</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004596094002689403</v>
+      </c>
+      <c r="E34">
+        <v>-0.006084544893483531</v>
+      </c>
+      <c r="F34">
+        <v>0.02093159958698005</v>
+      </c>
+      <c r="G34">
+        <v>0.09523132276202183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01584939528618569</v>
+        <v>0.01618344275056359</v>
       </c>
       <c r="C36">
-        <v>0.008495435342991419</v>
+        <v>-0.009752501788347507</v>
       </c>
       <c r="D36">
-        <v>0.006685049012568502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01247879210297607</v>
+      </c>
+      <c r="E36">
+        <v>-0.008342537791733717</v>
+      </c>
+      <c r="F36">
+        <v>-0.006754550857600868</v>
+      </c>
+      <c r="G36">
+        <v>0.09067783252911278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005405632335609746</v>
+        <v>0.03124079027358044</v>
       </c>
       <c r="C38">
-        <v>0.02725116900615343</v>
+        <v>-0.03139534226604514</v>
       </c>
       <c r="D38">
-        <v>0.04746153432198019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007427353903045403</v>
+      </c>
+      <c r="E38">
+        <v>-0.006128894053605235</v>
+      </c>
+      <c r="F38">
+        <v>-0.01949732812564238</v>
+      </c>
+      <c r="G38">
+        <v>0.08743268093986627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00333744799088408</v>
+        <v>0.03678985708820483</v>
       </c>
       <c r="C39">
-        <v>-0.02941274556223668</v>
+        <v>-0.08086728364247465</v>
       </c>
       <c r="D39">
-        <v>0.1012995253559183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01142511150668208</v>
+      </c>
+      <c r="E39">
+        <v>-0.02690586890190184</v>
+      </c>
+      <c r="F39">
+        <v>0.02292602965337355</v>
+      </c>
+      <c r="G39">
+        <v>0.08797088427559432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01376851612346434</v>
+        <v>0.01338126685328679</v>
       </c>
       <c r="C40">
-        <v>0.003336066928724158</v>
+        <v>-0.04085967237542371</v>
       </c>
       <c r="D40">
-        <v>0.0406701307667067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01495967301363738</v>
+      </c>
+      <c r="E40">
+        <v>-0.03253951943577315</v>
+      </c>
+      <c r="F40">
+        <v>-0.007320507871786691</v>
+      </c>
+      <c r="G40">
+        <v>0.120183805405356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01290789947476201</v>
+        <v>0.02079566440514807</v>
       </c>
       <c r="C41">
-        <v>0.02013640492991284</v>
+        <v>-0.002554652019913501</v>
       </c>
       <c r="D41">
-        <v>-0.009587443700230614</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004324088635873041</v>
+      </c>
+      <c r="E41">
+        <v>-0.006605233676878205</v>
+      </c>
+      <c r="F41">
+        <v>-0.01520401360651301</v>
+      </c>
+      <c r="G41">
+        <v>0.08459973663747179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.07770575730150309</v>
+        <v>0.01037951200070843</v>
       </c>
       <c r="C42">
-        <v>-0.05738076978234373</v>
+        <v>-0.03386290836795501</v>
       </c>
       <c r="D42">
-        <v>0.1676003106608042</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08966908010079387</v>
+      </c>
+      <c r="E42">
+        <v>-0.01671398861997682</v>
+      </c>
+      <c r="F42">
+        <v>-0.04728533045690343</v>
+      </c>
+      <c r="G42">
+        <v>-0.03988799583135955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0129868827518909</v>
+        <v>0.03519150767490124</v>
       </c>
       <c r="C43">
-        <v>0.01845524049601016</v>
+        <v>-0.01843210970346917</v>
       </c>
       <c r="D43">
-        <v>-0.003868040392559845</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005849800074429125</v>
+      </c>
+      <c r="E43">
+        <v>-0.02108759013084723</v>
+      </c>
+      <c r="F43">
+        <v>-0.005831164925270269</v>
+      </c>
+      <c r="G43">
+        <v>0.1219425808680314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001864505700759011</v>
+        <v>0.01302681809241903</v>
       </c>
       <c r="C44">
-        <v>-0.003794879461153647</v>
+        <v>-0.05893432518237867</v>
       </c>
       <c r="D44">
-        <v>0.05632845383558623</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006942513668379191</v>
+      </c>
+      <c r="E44">
+        <v>-0.02298715075619452</v>
+      </c>
+      <c r="F44">
+        <v>-0.003839367487052246</v>
+      </c>
+      <c r="G44">
+        <v>0.1110830195281898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01096203269215834</v>
+        <v>0.007619189855234076</v>
       </c>
       <c r="C46">
-        <v>0.0004555003582617633</v>
+        <v>-0.01733572725988973</v>
       </c>
       <c r="D46">
-        <v>0.002060713176274671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01277149678905383</v>
+      </c>
+      <c r="E46">
+        <v>-0.004215773679783284</v>
+      </c>
+      <c r="F46">
+        <v>-0.01557654808077209</v>
+      </c>
+      <c r="G46">
+        <v>0.1053302247550865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01089102223241234</v>
+        <v>0.07730937533656526</v>
       </c>
       <c r="C47">
-        <v>0.02550560915099127</v>
+        <v>-0.06852269722343454</v>
       </c>
       <c r="D47">
-        <v>0.07507988007636211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004930386506911196</v>
+      </c>
+      <c r="E47">
+        <v>0.006756409948918417</v>
+      </c>
+      <c r="F47">
+        <v>-0.05468009026426899</v>
+      </c>
+      <c r="G47">
+        <v>0.08544734312152223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.007096649753555681</v>
+        <v>0.01927247883522986</v>
       </c>
       <c r="C48">
-        <v>0.01174941450781071</v>
+        <v>-0.01311864260469925</v>
       </c>
       <c r="D48">
-        <v>0.01952530286755572</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002027958522958373</v>
+      </c>
+      <c r="E48">
+        <v>-0.003937090723433549</v>
+      </c>
+      <c r="F48">
+        <v>-0.02029555401114864</v>
+      </c>
+      <c r="G48">
+        <v>0.09665699663465846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01708186302275015</v>
+        <v>0.07510058753514466</v>
       </c>
       <c r="C50">
-        <v>0.03415379732016345</v>
+        <v>-0.07236058210767728</v>
       </c>
       <c r="D50">
-        <v>0.07295701830698273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002198755189062188</v>
+      </c>
+      <c r="E50">
+        <v>0.003758909871020008</v>
+      </c>
+      <c r="F50">
+        <v>-0.05657936984530649</v>
+      </c>
+      <c r="G50">
+        <v>0.0943978671903126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007456347870753865</v>
+        <v>0.01445301693036776</v>
       </c>
       <c r="C51">
-        <v>0.001872303701674203</v>
+        <v>-0.03604557731312605</v>
       </c>
       <c r="D51">
-        <v>0.0190918143780581</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01050165383577493</v>
+      </c>
+      <c r="E51">
+        <v>-0.02436727671176187</v>
+      </c>
+      <c r="F51">
+        <v>0.0248273034457655</v>
+      </c>
+      <c r="G51">
+        <v>0.1212534708694402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01652800291503001</v>
+        <v>0.08137743951397436</v>
       </c>
       <c r="C53">
-        <v>0.0300840702355787</v>
+        <v>-0.08580015442746808</v>
       </c>
       <c r="D53">
-        <v>0.1339343782648761</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00321813536332181</v>
+      </c>
+      <c r="E53">
+        <v>0.02513816823016454</v>
+      </c>
+      <c r="F53">
+        <v>-0.06368082962756806</v>
+      </c>
+      <c r="G53">
+        <v>0.09529744094247719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01240853522532489</v>
+        <v>0.03250294441434524</v>
       </c>
       <c r="C54">
-        <v>0.03381800615981496</v>
+        <v>-0.01835163050922257</v>
       </c>
       <c r="D54">
-        <v>-0.001285432361135214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001540752797522825</v>
+      </c>
+      <c r="E54">
+        <v>-0.01684223667326717</v>
+      </c>
+      <c r="F54">
+        <v>-0.005475306280340983</v>
+      </c>
+      <c r="G54">
+        <v>0.1080501718865524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.00952552883726057</v>
+        <v>0.07189826543079404</v>
       </c>
       <c r="C55">
-        <v>0.01931016453540399</v>
+        <v>-0.06964086914370113</v>
       </c>
       <c r="D55">
-        <v>0.1084904711771822</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004898515711866558</v>
+      </c>
+      <c r="E55">
+        <v>0.02284450998680497</v>
+      </c>
+      <c r="F55">
+        <v>-0.06324338370166309</v>
+      </c>
+      <c r="G55">
+        <v>0.07118850850618971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01807127676432818</v>
+        <v>0.1365802352248771</v>
       </c>
       <c r="C56">
-        <v>0.04253544841713415</v>
+        <v>-0.1083937148607982</v>
       </c>
       <c r="D56">
-        <v>0.1630689028719493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01234900669336368</v>
+      </c>
+      <c r="E56">
+        <v>0.03190256661621568</v>
+      </c>
+      <c r="F56">
+        <v>-0.0803320339730301</v>
+      </c>
+      <c r="G56">
+        <v>0.04757318827302952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02367755699555569</v>
+        <v>0.005385546819195646</v>
       </c>
       <c r="C57">
-        <v>-0.00430571878371843</v>
+        <v>-0.006929311919610361</v>
       </c>
       <c r="D57">
-        <v>0.03554242102443893</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02328463703158532</v>
+      </c>
+      <c r="E57">
+        <v>-0.02540755415303679</v>
+      </c>
+      <c r="F57">
+        <v>0.01016844607804092</v>
+      </c>
+      <c r="G57">
+        <v>0.02669216752771425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01815097306116349</v>
+        <v>0.05145644520328534</v>
       </c>
       <c r="C58">
-        <v>0.03181498328092473</v>
+        <v>-0.05336342002982224</v>
       </c>
       <c r="D58">
-        <v>0.1691065206191527</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02043137351639902</v>
+      </c>
+      <c r="E58">
+        <v>-0.917580197898716</v>
+      </c>
+      <c r="F58">
+        <v>-0.2645676046482901</v>
+      </c>
+      <c r="G58">
+        <v>-0.2146755554807818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1197835198375321</v>
+        <v>0.1601260455435202</v>
       </c>
       <c r="C59">
-        <v>0.2463776839163241</v>
+        <v>0.2037914785496899</v>
       </c>
       <c r="D59">
-        <v>-0.09350611827294629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0116881842025059</v>
+      </c>
+      <c r="E59">
+        <v>-0.02030467251731904</v>
+      </c>
+      <c r="F59">
+        <v>-0.003830703148335718</v>
+      </c>
+      <c r="G59">
+        <v>0.03751879281847732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.09812256963812246</v>
+        <v>0.2886529436466466</v>
       </c>
       <c r="C60">
-        <v>0.1560688513273071</v>
+        <v>-0.1062416375318428</v>
       </c>
       <c r="D60">
-        <v>0.1483521848165242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01114839901286462</v>
+      </c>
+      <c r="E60">
+        <v>0.001989423388680339</v>
+      </c>
+      <c r="F60">
+        <v>0.338236568926585</v>
+      </c>
+      <c r="G60">
+        <v>-0.1599198291587907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001328938576316785</v>
+        <v>0.0387434838551324</v>
       </c>
       <c r="C61">
-        <v>-0.006339138587340773</v>
+        <v>-0.06722003017339903</v>
       </c>
       <c r="D61">
-        <v>0.07629963367672188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005390082355737252</v>
+      </c>
+      <c r="E61">
+        <v>-0.02209451414099703</v>
+      </c>
+      <c r="F61">
+        <v>0.0144497552355305</v>
+      </c>
+      <c r="G61">
+        <v>0.0949860274902989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00780719164751431</v>
+        <v>0.01529667656922074</v>
       </c>
       <c r="C63">
-        <v>-0.001863681976768502</v>
+        <v>-0.03041456777540783</v>
       </c>
       <c r="D63">
-        <v>0.02571830165713004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008558751347579338</v>
+      </c>
+      <c r="E63">
+        <v>-0.003426156259331411</v>
+      </c>
+      <c r="F63">
+        <v>-0.01945984320460747</v>
+      </c>
+      <c r="G63">
+        <v>0.09421342854942114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01680903363859329</v>
+        <v>0.04861949407420503</v>
       </c>
       <c r="C64">
-        <v>0.02090791984394019</v>
+        <v>-0.04769924780452141</v>
       </c>
       <c r="D64">
-        <v>0.06210285624596912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006232464809163631</v>
+      </c>
+      <c r="E64">
+        <v>-0.005638597919259086</v>
+      </c>
+      <c r="F64">
+        <v>0.004783574298371142</v>
+      </c>
+      <c r="G64">
+        <v>0.09923336950223097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0200716814766125</v>
+        <v>0.07444548852745649</v>
       </c>
       <c r="C65">
-        <v>-0.0007084071223037834</v>
+        <v>-0.059810601284692</v>
       </c>
       <c r="D65">
-        <v>0.110207211647755</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01654694989351217</v>
+      </c>
+      <c r="E65">
+        <v>-0.03793660658204458</v>
+      </c>
+      <c r="F65">
+        <v>0.02839441763133541</v>
+      </c>
+      <c r="G65">
+        <v>0.03806211940977179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003317345288850675</v>
+        <v>0.0513377615632706</v>
       </c>
       <c r="C66">
-        <v>-0.02923798635057111</v>
+        <v>-0.1080881048092156</v>
       </c>
       <c r="D66">
-        <v>0.1361590365549597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01143181950973205</v>
+      </c>
+      <c r="E66">
+        <v>-0.03812759000124181</v>
+      </c>
+      <c r="F66">
+        <v>0.03540178659334974</v>
+      </c>
+      <c r="G66">
+        <v>0.1042421325608547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01661027860037725</v>
+        <v>0.05427083322027806</v>
       </c>
       <c r="C67">
-        <v>0.04214501337976291</v>
+        <v>-0.03451049896179167</v>
       </c>
       <c r="D67">
-        <v>0.06592298712189242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005953089018886419</v>
+      </c>
+      <c r="E67">
+        <v>0.001863670262316124</v>
+      </c>
+      <c r="F67">
+        <v>-0.01810313989333917</v>
+      </c>
+      <c r="G67">
+        <v>0.07689734672985424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1350057865279025</v>
+        <v>0.1558681663061789</v>
       </c>
       <c r="C68">
-        <v>0.2360779301893155</v>
+        <v>0.2704323056967256</v>
       </c>
       <c r="D68">
-        <v>-0.1426170411229472</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005757485484693545</v>
+      </c>
+      <c r="E68">
+        <v>-0.01308068260685486</v>
+      </c>
+      <c r="F68">
+        <v>-0.03556990944356386</v>
+      </c>
+      <c r="G68">
+        <v>0.02812365335685861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01139016619789701</v>
+        <v>0.08292130460974914</v>
       </c>
       <c r="C69">
-        <v>0.0345520449765661</v>
+        <v>-0.070325965945958</v>
       </c>
       <c r="D69">
-        <v>0.07999397024438264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008874886834188803</v>
+      </c>
+      <c r="E69">
+        <v>0.0207696681569595</v>
+      </c>
+      <c r="F69">
+        <v>-0.03551332499083085</v>
+      </c>
+      <c r="G69">
+        <v>0.1032316190352261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1060693228903133</v>
+        <v>0.1410612906720616</v>
       </c>
       <c r="C71">
-        <v>0.1983158072563781</v>
+        <v>0.2289126087726489</v>
       </c>
       <c r="D71">
-        <v>-0.09055815821863672</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002778159691000455</v>
+      </c>
+      <c r="E71">
+        <v>-0.03578309209369593</v>
+      </c>
+      <c r="F71">
+        <v>-0.02092505376466867</v>
+      </c>
+      <c r="G71">
+        <v>0.06791103999728035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.003338635930852446</v>
+        <v>0.08513025958135946</v>
       </c>
       <c r="C72">
-        <v>0.01857287018337188</v>
+        <v>-0.07047144477122969</v>
       </c>
       <c r="D72">
-        <v>0.103881543887282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008713086361406979</v>
+      </c>
+      <c r="E72">
+        <v>0.008057476898520566</v>
+      </c>
+      <c r="F72">
+        <v>0.04250800044505506</v>
+      </c>
+      <c r="G72">
+        <v>0.08711943743026908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1151166020966628</v>
+        <v>0.3772411840628455</v>
       </c>
       <c r="C73">
-        <v>0.1660469923978848</v>
+        <v>-0.1177980468438337</v>
       </c>
       <c r="D73">
-        <v>0.2822907130550312</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01977170112828503</v>
+      </c>
+      <c r="E73">
+        <v>-0.07745487351970451</v>
+      </c>
+      <c r="F73">
+        <v>0.5747817798114631</v>
+      </c>
+      <c r="G73">
+        <v>-0.2890884994062558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01846804006870031</v>
+        <v>0.104776708402022</v>
       </c>
       <c r="C74">
-        <v>0.04570862022415995</v>
+        <v>-0.1093096306122033</v>
       </c>
       <c r="D74">
-        <v>0.1808285799458189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009349178131988876</v>
+      </c>
+      <c r="E74">
+        <v>0.007239996194748256</v>
+      </c>
+      <c r="F74">
+        <v>-0.06829141644711548</v>
+      </c>
+      <c r="G74">
+        <v>0.08652233762075308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.04338582539745366</v>
+        <v>0.2468029814005519</v>
       </c>
       <c r="C75">
-        <v>0.1048948827698489</v>
+        <v>-0.1521866685362598</v>
       </c>
       <c r="D75">
-        <v>0.2978769153874679</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03048340839800054</v>
+      </c>
+      <c r="E75">
+        <v>0.0672992981237585</v>
+      </c>
+      <c r="F75">
+        <v>-0.1690698401949062</v>
+      </c>
+      <c r="G75">
+        <v>-0.009579954921504137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01698305971646972</v>
+        <v>0.1180072617335855</v>
       </c>
       <c r="C76">
-        <v>0.05591580417366178</v>
+        <v>-0.109743216929225</v>
       </c>
       <c r="D76">
-        <v>0.216169104288874</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01796298733194745</v>
+      </c>
+      <c r="E76">
+        <v>0.02868775525260805</v>
+      </c>
+      <c r="F76">
+        <v>-0.1059256112271139</v>
+      </c>
+      <c r="G76">
+        <v>0.06146013011850733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01755031081950793</v>
+        <v>0.06805475427333008</v>
       </c>
       <c r="C77">
-        <v>0.009300991396572001</v>
+        <v>-0.06000083143816614</v>
       </c>
       <c r="D77">
-        <v>0.07104428930926872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01089541399056356</v>
+      </c>
+      <c r="E77">
+        <v>-0.04569560145753351</v>
+      </c>
+      <c r="F77">
+        <v>0.01118568102606422</v>
+      </c>
+      <c r="G77">
+        <v>0.06521641696474359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005861576281120267</v>
+        <v>0.04138700282461484</v>
       </c>
       <c r="C78">
-        <v>0.001675760305283609</v>
+        <v>-0.05165629310113017</v>
       </c>
       <c r="D78">
-        <v>0.05786894778002875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005841372114043152</v>
+      </c>
+      <c r="E78">
+        <v>-0.02829079389364801</v>
+      </c>
+      <c r="F78">
+        <v>0.03762915238253918</v>
+      </c>
+      <c r="G78">
+        <v>0.1006267338656379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02356248652125533</v>
+        <v>0.04329739750795376</v>
       </c>
       <c r="C80">
-        <v>0.01930035170551776</v>
+        <v>-0.05126329808779574</v>
       </c>
       <c r="D80">
-        <v>0.08597805853567422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01310609948671977</v>
+      </c>
+      <c r="E80">
+        <v>-0.02391056959884066</v>
+      </c>
+      <c r="F80">
+        <v>0.01464563871218369</v>
+      </c>
+      <c r="G80">
+        <v>0.05050062127884618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02634943217224239</v>
+        <v>0.1360748751719323</v>
       </c>
       <c r="C81">
-        <v>0.06154789513642417</v>
+        <v>-0.09582903244080748</v>
       </c>
       <c r="D81">
-        <v>0.1731577843968312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01471597629909058</v>
+      </c>
+      <c r="E81">
+        <v>0.03473527880351698</v>
+      </c>
+      <c r="F81">
+        <v>-0.1265477685930909</v>
+      </c>
+      <c r="G81">
+        <v>0.02546829028996923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1320305196687491</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07833547393119071</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.008808004136424349</v>
+      </c>
+      <c r="E82">
+        <v>0.09885036557798522</v>
+      </c>
+      <c r="F82">
+        <v>-0.0482462005292177</v>
+      </c>
+      <c r="G82">
+        <v>0.07433674261217761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01176943665121454</v>
+        <v>0.03588449010025298</v>
       </c>
       <c r="C83">
-        <v>0.01377664407600385</v>
+        <v>-0.02958693690824286</v>
       </c>
       <c r="D83">
-        <v>0.03542973219145379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005859876293155667</v>
+      </c>
+      <c r="E83">
+        <v>-0.03013534937759009</v>
+      </c>
+      <c r="F83">
+        <v>0.03021213729564504</v>
+      </c>
+      <c r="G83">
+        <v>0.05866183768564012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.04347666229513839</v>
+        <v>0.2123097117732237</v>
       </c>
       <c r="C85">
-        <v>0.07735650512943419</v>
+        <v>-0.1472793670111071</v>
       </c>
       <c r="D85">
-        <v>0.2710070671116249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01733909414745695</v>
+      </c>
+      <c r="E85">
+        <v>0.1032355131669714</v>
+      </c>
+      <c r="F85">
+        <v>-0.1235352669593588</v>
+      </c>
+      <c r="G85">
+        <v>-0.06062606606352878</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01356871823418518</v>
+        <v>0.01387801087252587</v>
       </c>
       <c r="C86">
-        <v>0.01429656622127938</v>
+        <v>-0.02777038595966601</v>
       </c>
       <c r="D86">
-        <v>0.05668054612731399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01164205933632513</v>
+      </c>
+      <c r="E86">
+        <v>-0.05096572584465787</v>
+      </c>
+      <c r="F86">
+        <v>0.0219417336466264</v>
+      </c>
+      <c r="G86">
+        <v>0.1901671567312231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003625640373676158</v>
+        <v>0.0210383916205558</v>
       </c>
       <c r="C87">
-        <v>-0.0128106181512656</v>
+        <v>-0.02340457706931935</v>
       </c>
       <c r="D87">
-        <v>0.04811002474384102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01176866314711753</v>
+      </c>
+      <c r="E87">
+        <v>-0.09241630468759833</v>
+      </c>
+      <c r="F87">
+        <v>0.01003352973718637</v>
+      </c>
+      <c r="G87">
+        <v>0.121045803011897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03597587174146945</v>
+        <v>0.09365781312109964</v>
       </c>
       <c r="C88">
-        <v>0.01998533526853549</v>
+        <v>-0.06855356298222212</v>
       </c>
       <c r="D88">
-        <v>0.05336162201023969</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02218249056529158</v>
+      </c>
+      <c r="E88">
+        <v>0.003080192462656416</v>
+      </c>
+      <c r="F88">
+        <v>-0.01885439339017669</v>
+      </c>
+      <c r="G88">
+        <v>0.09292396720084958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1991730093826938</v>
+        <v>0.2322943334969491</v>
       </c>
       <c r="C89">
-        <v>0.3660453424542834</v>
+        <v>0.3674795449650201</v>
       </c>
       <c r="D89">
-        <v>-0.1689230131032838</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0003804824962860015</v>
+      </c>
+      <c r="E89">
+        <v>0.01301514552063003</v>
+      </c>
+      <c r="F89">
+        <v>-0.02506475678814733</v>
+      </c>
+      <c r="G89">
+        <v>0.06882190389727481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1577147603180806</v>
+        <v>0.2086918916118339</v>
       </c>
       <c r="C90">
-        <v>0.2961910771224854</v>
+        <v>0.3171673313784653</v>
       </c>
       <c r="D90">
-        <v>-0.1518865251974258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004303685892109263</v>
+      </c>
+      <c r="E90">
+        <v>-0.002514357687291237</v>
+      </c>
+      <c r="F90">
+        <v>-0.04764233938358979</v>
+      </c>
+      <c r="G90">
+        <v>0.04874641319885614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.03813726610980468</v>
+        <v>0.1853432375533325</v>
       </c>
       <c r="C91">
-        <v>0.0960372097437576</v>
+        <v>-0.1403766185508982</v>
       </c>
       <c r="D91">
-        <v>0.2258263744197266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.021738221167235</v>
+      </c>
+      <c r="E91">
+        <v>0.06299233332250441</v>
+      </c>
+      <c r="F91">
+        <v>-0.143408917319954</v>
+      </c>
+      <c r="G91">
+        <v>0.03702472856465765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1229369297965152</v>
+        <v>0.1996115359806408</v>
       </c>
       <c r="C92">
-        <v>0.2942881509865617</v>
+        <v>0.2566726677682403</v>
       </c>
       <c r="D92">
-        <v>-0.05749395934764748</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03761702227814051</v>
+      </c>
+      <c r="E92">
+        <v>-0.04581836267301499</v>
+      </c>
+      <c r="F92">
+        <v>-0.06018275695564734</v>
+      </c>
+      <c r="G92">
+        <v>0.117653587319163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1640059536488449</v>
+        <v>0.2320809091128493</v>
       </c>
       <c r="C93">
-        <v>0.3185917986402432</v>
+        <v>0.313437673931096</v>
       </c>
       <c r="D93">
-        <v>-0.12369044861731</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01120190759837144</v>
+      </c>
+      <c r="E93">
+        <v>-0.007965364723981808</v>
+      </c>
+      <c r="F93">
+        <v>-0.04268694750619353</v>
+      </c>
+      <c r="G93">
+        <v>0.06004046693513027</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.07830572598756144</v>
+        <v>0.3192468595003264</v>
       </c>
       <c r="C94">
-        <v>0.1293374119971584</v>
+        <v>-0.1777556084463704</v>
       </c>
       <c r="D94">
-        <v>0.2917448685258437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01768946271132497</v>
+      </c>
+      <c r="E94">
+        <v>0.210228327410023</v>
+      </c>
+      <c r="F94">
+        <v>-0.4814060256018129</v>
+      </c>
+      <c r="G94">
+        <v>-0.4301966734388367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001416136074128777</v>
+        <v>0.1007792306426824</v>
       </c>
       <c r="C95">
-        <v>0.0151620177988077</v>
+        <v>-0.09050517374411676</v>
       </c>
       <c r="D95">
-        <v>0.1300075892371402</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01099911093271959</v>
+      </c>
+      <c r="E95">
+        <v>-0.07535411212380871</v>
+      </c>
+      <c r="F95">
+        <v>0.2049821317756716</v>
+      </c>
+      <c r="G95">
+        <v>-0.0519936408265446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.05833217164608286</v>
+        <v>0.1970823154956596</v>
       </c>
       <c r="C98">
-        <v>0.136336194251741</v>
+        <v>-0.04500911073878103</v>
       </c>
       <c r="D98">
-        <v>0.1581734180496726</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01388075879296552</v>
+      </c>
+      <c r="E98">
+        <v>-0.07028266878663314</v>
+      </c>
+      <c r="F98">
+        <v>0.2363119918333415</v>
+      </c>
+      <c r="G98">
+        <v>-0.00624040340431662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01106300105950727</v>
+        <v>0.009298104154322008</v>
       </c>
       <c r="C101">
-        <v>0.007829701164907079</v>
+        <v>-0.02293182581597105</v>
       </c>
       <c r="D101">
-        <v>0.01998559062073561</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.008888593064007131</v>
+      </c>
+      <c r="E101">
+        <v>-0.003617982455620467</v>
+      </c>
+      <c r="F101">
+        <v>-0.01681250654401512</v>
+      </c>
+      <c r="G101">
+        <v>0.09510530292008333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.029911098459637</v>
+        <v>0.11597546651848</v>
       </c>
       <c r="C102">
-        <v>0.03910231115386322</v>
+        <v>-0.08384949967938483</v>
       </c>
       <c r="D102">
-        <v>0.1322569723887551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0009256964038530863</v>
+      </c>
+      <c r="E102">
+        <v>0.03536955518827904</v>
+      </c>
+      <c r="F102">
+        <v>-0.0412669983654586</v>
+      </c>
+      <c r="G102">
+        <v>0.01794927027352753</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.879141311783778</v>
+        <v>0.02120746596314786</v>
       </c>
       <c r="C104">
-        <v>-0.4562660680017499</v>
+        <v>0.02961747183137297</v>
       </c>
       <c r="D104">
-        <v>-0.04098932248521003</v>
+        <v>0.9879770532085388</v>
+      </c>
+      <c r="E104">
+        <v>0.04702754489229756</v>
+      </c>
+      <c r="F104">
+        <v>-0.03306770631472256</v>
+      </c>
+      <c r="G104">
+        <v>-0.03695538750334912</v>
       </c>
     </row>
   </sheetData>
